--- a/Students Project/ZhouHengDa/UploadImages/Docs/新建 Microsoft Excel 工作表.xlsx
+++ b/Students Project/ZhouHengDa/UploadImages/Docs/新建 Microsoft Excel 工作表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>玄秘塔碑（1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>弹出“浏览文件夹”对话框，在对话框中选择要上传的图片所在的文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,6 +298,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -321,38 +344,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,10 +365,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1151,7 +1155,7 @@
   <dimension ref="N2:AY40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ23" sqref="AQ23"/>
+      <selection activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1170,64 +1174,64 @@
       <c r="AN4" s="3"/>
     </row>
     <row r="5" spans="15:51" x14ac:dyDescent="0.15">
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="30" t="s">
-        <v>6</v>
+      <c r="O5" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="15"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="6"/>
     </row>
     <row r="6" spans="15:51" x14ac:dyDescent="0.15">
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="18"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="9"/>
     </row>
     <row r="7" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O7" s="1"/>
@@ -1256,7 +1260,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="37"/>
+      <c r="AO7" s="19"/>
     </row>
     <row r="8" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O8" s="1"/>
@@ -1269,25 +1273,25 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="6"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="25"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="38"/>
+      <c r="AO8" s="20"/>
     </row>
     <row r="9" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O9" s="1"/>
@@ -1300,23 +1304,23 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="9"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="28"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
-      <c r="AO9" s="38"/>
+      <c r="AO9" s="20"/>
     </row>
     <row r="10" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O10" s="1"/>
@@ -1329,23 +1333,23 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="9"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="28"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="38"/>
+      <c r="AO10" s="20"/>
     </row>
     <row r="11" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O11" s="1"/>
@@ -1358,23 +1362,23 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="9"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="28"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
-      <c r="AO11" s="38"/>
+      <c r="AO11" s="20"/>
     </row>
     <row r="12" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O12" s="1"/>
@@ -1387,23 +1391,23 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="9"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="28"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="38"/>
+      <c r="AO12" s="20"/>
     </row>
     <row r="13" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O13" s="1"/>
@@ -1416,23 +1420,23 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="9"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="28"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
-      <c r="AO13" s="38"/>
+      <c r="AO13" s="20"/>
     </row>
     <row r="14" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O14" s="1"/>
@@ -1445,23 +1449,23 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="9"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="28"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="38"/>
+      <c r="AO14" s="20"/>
       <c r="AY14" s="2"/>
     </row>
     <row r="15" spans="15:51" x14ac:dyDescent="0.15">
@@ -1475,23 +1479,23 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="12"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="31"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="38"/>
+      <c r="AO15" s="20"/>
     </row>
     <row r="16" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O16" s="1"/>
@@ -1520,7 +1524,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
-      <c r="AO16" s="38"/>
+      <c r="AO16" s="20"/>
     </row>
     <row r="17" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O17" s="1"/>
@@ -1551,7 +1555,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
-      <c r="AO17" s="38"/>
+      <c r="AO17" s="20"/>
     </row>
     <row r="18" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O18" s="1"/>
@@ -1580,7 +1584,7 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="38"/>
+      <c r="AO18" s="20"/>
     </row>
     <row r="19" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O19" s="1"/>
@@ -1609,7 +1613,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
-      <c r="AO19" s="38"/>
+      <c r="AO19" s="20"/>
     </row>
     <row r="20" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O20" s="1"/>
@@ -1622,25 +1626,25 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="4" t="s">
+      <c r="Y20" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="6"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="25"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="39"/>
+      <c r="AO20" s="21"/>
     </row>
     <row r="21" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O21" s="1"/>
@@ -1653,23 +1657,23 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="9"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="28"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
-      <c r="AO21" s="39"/>
+      <c r="AO21" s="21"/>
     </row>
     <row r="22" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O22" s="1"/>
@@ -1682,23 +1686,23 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="9"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="28"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="39"/>
+      <c r="AO22" s="21"/>
     </row>
     <row r="23" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O23" s="1"/>
@@ -1711,23 +1715,23 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="9"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="28"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" s="39"/>
+      <c r="AO23" s="21"/>
     </row>
     <row r="24" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O24" s="1"/>
@@ -1740,23 +1744,23 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="9"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="28"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" s="39"/>
+      <c r="AO24" s="21"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
     </row>
@@ -1771,23 +1775,23 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="9"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="28"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
-      <c r="AO25" s="39"/>
+      <c r="AO25" s="21"/>
     </row>
     <row r="26" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O26" s="1"/>
@@ -1800,23 +1804,23 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="9"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="28"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" s="39"/>
+      <c r="AO26" s="21"/>
       <c r="AX26" s="2"/>
       <c r="AY26" s="2"/>
     </row>
@@ -1831,23 +1835,23 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="12"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="31"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" s="39"/>
+      <c r="AO27" s="21"/>
     </row>
     <row r="28" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O28" s="1"/>
@@ -1876,7 +1880,7 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
-      <c r="AO28" s="39"/>
+      <c r="AO28" s="21"/>
     </row>
     <row r="29" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O29" s="1"/>
@@ -1907,7 +1911,7 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
-      <c r="AO29" s="39"/>
+      <c r="AO29" s="21"/>
     </row>
     <row r="30" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O30" s="1"/>
@@ -1936,7 +1940,7 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
-      <c r="AO30" s="39"/>
+      <c r="AO30" s="21"/>
     </row>
     <row r="31" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O31" s="1"/>
@@ -1965,7 +1969,7 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
-      <c r="AO31" s="39"/>
+      <c r="AO31" s="21"/>
     </row>
     <row r="32" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O32" s="1"/>
@@ -1994,7 +1998,7 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
-      <c r="AO32" s="39"/>
+      <c r="AO32" s="21"/>
     </row>
     <row r="33" spans="14:41" x14ac:dyDescent="0.15">
       <c r="O33" s="1"/>
@@ -2023,98 +2027,98 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
-      <c r="AO33" s="40"/>
+      <c r="AO33" s="22"/>
     </row>
     <row r="34" spans="14:41" x14ac:dyDescent="0.15">
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="20"/>
-      <c r="AO34" s="21"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="12"/>
     </row>
     <row r="35" spans="14:41" x14ac:dyDescent="0.15">
-      <c r="O35" s="22"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="24" t="s">
+      <c r="O35" s="13"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="24" t="s">
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="26"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="15"/>
     </row>
     <row r="36" spans="14:41" x14ac:dyDescent="0.15">
-      <c r="O36" s="27"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28"/>
-      <c r="AN36" s="28"/>
-      <c r="AO36" s="29"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="18"/>
     </row>
     <row r="40" spans="14:41" x14ac:dyDescent="0.15">
       <c r="N40" t="s">
@@ -2160,64 +2164,64 @@
       <c r="AN4" s="3"/>
     </row>
     <row r="5" spans="15:51" x14ac:dyDescent="0.15">
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="30" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="15"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="6"/>
     </row>
     <row r="6" spans="15:51" x14ac:dyDescent="0.15">
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="18"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="9"/>
     </row>
     <row r="7" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O7" s="1"/>
@@ -2246,7 +2250,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="37"/>
+      <c r="AO7" s="19"/>
     </row>
     <row r="8" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O8" s="1"/>
@@ -2259,25 +2263,25 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="6"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="25"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="38"/>
+      <c r="AO8" s="20"/>
     </row>
     <row r="9" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O9" s="1"/>
@@ -2290,23 +2294,23 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="9"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="28"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
-      <c r="AO9" s="38"/>
+      <c r="AO9" s="20"/>
     </row>
     <row r="10" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O10" s="1"/>
@@ -2319,23 +2323,23 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="9"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="28"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="38"/>
+      <c r="AO10" s="20"/>
     </row>
     <row r="11" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O11" s="1"/>
@@ -2348,23 +2352,23 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="9"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="28"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
-      <c r="AO11" s="38"/>
+      <c r="AO11" s="20"/>
     </row>
     <row r="12" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O12" s="1"/>
@@ -2377,23 +2381,23 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="9"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="28"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="38"/>
+      <c r="AO12" s="20"/>
     </row>
     <row r="13" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O13" s="1"/>
@@ -2406,23 +2410,23 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="9"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="28"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
-      <c r="AO13" s="38"/>
+      <c r="AO13" s="20"/>
     </row>
     <row r="14" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O14" s="1"/>
@@ -2435,23 +2439,23 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="9"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="28"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="38"/>
+      <c r="AO14" s="20"/>
       <c r="AY14" s="2"/>
     </row>
     <row r="15" spans="15:51" x14ac:dyDescent="0.15">
@@ -2465,23 +2469,23 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="12"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="31"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="38"/>
+      <c r="AO15" s="20"/>
     </row>
     <row r="16" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O16" s="1"/>
@@ -2510,7 +2514,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
-      <c r="AO16" s="38"/>
+      <c r="AO16" s="20"/>
     </row>
     <row r="17" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O17" s="1"/>
@@ -2541,38 +2545,38 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
-      <c r="AO17" s="38"/>
+      <c r="AO17" s="20"/>
     </row>
     <row r="18" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O18" s="1"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="34">
+      <c r="R18" s="36">
         <v>1</v>
       </c>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="36"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="38"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="38"/>
+      <c r="AO18" s="20"/>
     </row>
     <row r="19" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O19" s="1"/>
@@ -2601,7 +2605,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
-      <c r="AO19" s="38"/>
+      <c r="AO19" s="20"/>
     </row>
     <row r="20" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O20" s="1"/>
@@ -2614,25 +2618,25 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="4" t="s">
+      <c r="Y20" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="6"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="25"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="39"/>
+      <c r="AO20" s="21"/>
     </row>
     <row r="21" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O21" s="1"/>
@@ -2645,23 +2649,23 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="9"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="28"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
-      <c r="AO21" s="39"/>
+      <c r="AO21" s="21"/>
     </row>
     <row r="22" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O22" s="1"/>
@@ -2674,23 +2678,23 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="9"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="28"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="39"/>
+      <c r="AO22" s="21"/>
     </row>
     <row r="23" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O23" s="1"/>
@@ -2703,23 +2707,23 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="9"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="28"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" s="39"/>
+      <c r="AO23" s="21"/>
     </row>
     <row r="24" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O24" s="1"/>
@@ -2732,23 +2736,23 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="9"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="28"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" s="39"/>
+      <c r="AO24" s="21"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
     </row>
@@ -2763,23 +2767,23 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="9"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="28"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
-      <c r="AO25" s="39"/>
+      <c r="AO25" s="21"/>
     </row>
     <row r="26" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O26" s="1"/>
@@ -2792,23 +2796,23 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="9"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="28"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" s="39"/>
+      <c r="AO26" s="21"/>
       <c r="AX26" s="2"/>
       <c r="AY26" s="2"/>
     </row>
@@ -2823,23 +2827,23 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="12"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="31"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" s="39"/>
+      <c r="AO27" s="21"/>
     </row>
     <row r="28" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O28" s="1"/>
@@ -2868,7 +2872,7 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
-      <c r="AO28" s="39"/>
+      <c r="AO28" s="21"/>
     </row>
     <row r="29" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O29" s="1"/>
@@ -2899,38 +2903,38 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
-      <c r="AO29" s="39"/>
+      <c r="AO29" s="21"/>
     </row>
     <row r="30" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O30" s="1"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="33">
+      <c r="R30" s="39">
         <v>0</v>
       </c>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="25"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="33"/>
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
-      <c r="AO30" s="39"/>
+      <c r="AO30" s="21"/>
     </row>
     <row r="31" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O31" s="1"/>
@@ -2959,7 +2963,7 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
-      <c r="AO31" s="39"/>
+      <c r="AO31" s="21"/>
     </row>
     <row r="32" spans="15:51" x14ac:dyDescent="0.15">
       <c r="O32" s="1"/>
@@ -2988,7 +2992,7 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
-      <c r="AO32" s="39"/>
+      <c r="AO32" s="21"/>
     </row>
     <row r="33" spans="14:41" x14ac:dyDescent="0.15">
       <c r="O33" s="1"/>
@@ -3017,98 +3021,98 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
-      <c r="AO33" s="40"/>
+      <c r="AO33" s="22"/>
     </row>
     <row r="34" spans="14:41" x14ac:dyDescent="0.15">
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="20"/>
-      <c r="AO34" s="21"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="12"/>
     </row>
     <row r="35" spans="14:41" x14ac:dyDescent="0.15">
-      <c r="O35" s="22"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="24" t="s">
+      <c r="O35" s="13"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="24" t="s">
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="26"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="15"/>
     </row>
     <row r="36" spans="14:41" x14ac:dyDescent="0.15">
-      <c r="O36" s="27"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28"/>
-      <c r="AN36" s="28"/>
-      <c r="AO36" s="29"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="18"/>
     </row>
     <row r="40" spans="14:41" x14ac:dyDescent="0.15">
       <c r="N40" t="s">
